--- a/templates/community/MAdLand/MAdLand_cultivation_conditions.xlsx
+++ b/templates/community/MAdLand/MAdLand_cultivation_conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\MAdLand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1591EE-C7A1-436F-BB2B-92850D609436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F9645A-FD31-4322-9F81-CDD494567400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{5175C398-6057-4720-8A59-77326B96BF47}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5175C398-6057-4720-8A59-77326B96BF47}"/>
   </bookViews>
   <sheets>
     <sheet name="cultivation conditions" sheetId="1" r:id="rId1"/>
@@ -50,75 +50,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{35EC8269-CD36-485E-96D5-75A814C305C0}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=17602c2c-0500-43b9-9697-7c638aee2271</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{3E3C3E80-90BF-4586-975B-59790E1F9749}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{DE8F53F0-7063-4BF6-A8EE-48F77814BD42}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{4A37E8F7-E11F-4BCC-980B-16DBDDB40BCB}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{3A2BA122-F85E-4DE5-BCD2-9E10C916F2CA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{091B01EC-C895-4B9E-8903-6654A784453A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{317BA810-A9A5-49E6-AE2A-197B7936D421}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{50444719-F78F-47BE-8B59-DD1C7EB945D5}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{FD93267E-DA44-4041-BB07-4D5B4626D6A3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>Source Name</t>
   </si>
@@ -294,33 +294,6 @@
     <t>fabian.haas@uni-marburg.de</t>
   </si>
   <si>
-    <t>Characteristics [Date]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:1000153)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000153)</t>
-  </si>
-  <si>
-    <t>Characteristics [Medium volume]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:1000155)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000155)</t>
-  </si>
-  <si>
-    <t>Characteristics [Light quality]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:1000157)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000157)</t>
-  </si>
-  <si>
     <t>Authors ORCID</t>
   </si>
   <si>
@@ -331,13 +304,43 @@
   </si>
   <si>
     <t>Authors Role Term Source REF</t>
+  </si>
+  <si>
+    <t>Characteristic [Date]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Term Source REF (NCIT:C25164)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (NCIT:C25164)</t>
+  </si>
+  <si>
+    <t>Characteristic [light quality]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000157)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000157)</t>
+  </si>
+  <si>
+    <t>Characteristic [culture medium volume]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000155)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000155)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,12 +363,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -483,7 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -515,12 +512,41 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -545,21 +571,21 @@
   <autoFilter ref="A1:AC2" xr:uid="{AA0C89A1-96BF-40D0-A809-025A9DFE2A5C}"/>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{9BE09845-A75D-45F6-B08B-62090DF566DF}" name="Source Name"/>
-    <tableColumn id="24" xr3:uid="{4E98B98C-D351-4C29-84FC-01D46FCEF746}" name="Characteristics [Date]"/>
-    <tableColumn id="25" xr3:uid="{FB8ED91E-57F6-4A77-9954-4A6FF0EE14E1}" name="Term Source REF (NFDI4PSO:1000153)"/>
-    <tableColumn id="26" xr3:uid="{EFFBD7F5-97E5-4A65-8F59-4F74F206A3DE}" name="Term Accession Number (NFDI4PSO:1000153)"/>
+    <tableColumn id="9" xr3:uid="{6AFA209E-098E-4351-8D92-291DB0E3173A}" name="Characteristic [Date]" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{DC886C54-8019-47D8-9040-03646DCD3B01}" name="Term Source REF (NCIT:C25164)" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{8F428417-9C82-48B1-B7D8-4B0FDE0AE8D0}" name="Term Accession Number (NCIT:C25164)" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{471FEB73-2A21-4FA9-BB5D-34DDDB0B047F}" name="Parameter [culture medium]"/>
     <tableColumn id="4" xr3:uid="{5FD7148D-22B5-4EE4-84E6-8D9719FA3A2D}" name="Term Source REF (OBI:0000079)"/>
     <tableColumn id="5" xr3:uid="{75633E85-D246-4B86-968C-3F71B52B6CA9}" name="Term Accession Number (OBI:0000079)"/>
     <tableColumn id="6" xr3:uid="{6C76C89D-0285-4060-A711-EAADCBB8FB3A}" name="Parameter [light intensity exposure]"/>
     <tableColumn id="7" xr3:uid="{43CE57D2-35FD-457C-9FB8-DBAFD8C33A16}" name="Term Source REF (PECO:0007224)"/>
     <tableColumn id="8" xr3:uid="{D1A2C713-98B7-454D-8EA2-FE75DC5249C8}" name="Term Accession Number (PECO:0007224)"/>
-    <tableColumn id="30" xr3:uid="{A0C5535D-3A48-4F19-A962-282953F6E48B}" name="Characteristics [Light quality]"/>
-    <tableColumn id="31" xr3:uid="{6D20A678-4610-45CE-9EDD-AA02D8C97979}" name="Term Source REF (NFDI4PSO:1000157)"/>
-    <tableColumn id="32" xr3:uid="{F70FED56-1428-4D82-9048-BA1783F2AB67}" name="Term Accession Number (NFDI4PSO:1000157)"/>
-    <tableColumn id="27" xr3:uid="{5FD8FA1F-F900-4D97-B896-4ECFBD9C73F1}" name="Characteristics [Medium volume]"/>
-    <tableColumn id="28" xr3:uid="{31F3DB3D-C574-44DC-AC7E-5C9EE6EB9C70}" name="Term Source REF (NFDI4PSO:1000155)"/>
-    <tableColumn id="29" xr3:uid="{07BFD107-6BE1-4E09-BACB-0D7DB16BF6D3}" name="Term Accession Number (NFDI4PSO:1000155)"/>
+    <tableColumn id="24" xr3:uid="{0A66BCA4-7B4C-40EE-9891-3B81249C0548}" name="Characteristic [light quality]" dataDxfId="5"/>
+    <tableColumn id="25" xr3:uid="{2E21804F-00DA-480D-90E8-36B56A4708DB}" name="Term Source REF (DPBO:1000157)" dataDxfId="4"/>
+    <tableColumn id="26" xr3:uid="{EF28CDB7-6DAD-45D6-9E74-A3F5CDF3856A}" name="Term Accession Number (DPBO:1000157)" dataDxfId="3"/>
+    <tableColumn id="27" xr3:uid="{9F47511A-44D4-4944-A851-D13FC90C3336}" name="Characteristic [culture medium volume]" dataDxfId="2"/>
+    <tableColumn id="28" xr3:uid="{6BF030A4-77AE-443D-A7EF-BAD923CE6295}" name="Term Source REF (DPBO:1000155)" dataDxfId="1"/>
+    <tableColumn id="29" xr3:uid="{96AA4EC9-2AC6-43FD-99FF-320AF7082B45}" name="Term Accession Number (DPBO:1000155)" dataDxfId="0"/>
     <tableColumn id="12" xr3:uid="{A8386E11-21A7-4CB9-A909-EE976F13945E}" name="Parameter [treatment]"/>
     <tableColumn id="13" xr3:uid="{DAF8EA1E-C41F-4A18-89E2-1AABA3060FBF}" name="Term Source REF (OGMS:0000090)"/>
     <tableColumn id="14" xr3:uid="{977D2515-BFBB-4289-A0B4-DF8929B64D1B}" name="Term Accession Number (OGMS:0000090)"/>
@@ -579,9 +605,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -619,7 +645,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -725,7 +751,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -867,7 +893,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -910,7 +936,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="562" row="3">
+  <wetp:taskpane dockstate="right" visibility="0" width="970" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="550" row="4">
@@ -941,55 +967,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0220EB21-B30A-4104-B8EC-C5E7E6139214}">
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="39.5703125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="34" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="41" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="41" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.85546875" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="39" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.44140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="37.88671875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.21875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="38.77734375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.44140625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="37.88671875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="32.77734375" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="39.33203125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.77734375" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="37.21875" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1010,22 +1038,22 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="O1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="P1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="Q1" t="s">
         <v>8</v>
@@ -1065,6 +1093,31 @@
       </c>
       <c r="AC1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1079,18 +1132,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88FEFE3-A362-41F9-BF58-44BAAD965CD6}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1098,7 +1151,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1106,7 +1159,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -1114,7 +1167,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -1122,7 +1175,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1130,7 +1183,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1138,31 +1191,31 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1170,7 +1223,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -1184,7 +1237,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1192,7 +1245,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1200,13 +1253,13 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1214,7 +1267,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -1222,13 +1275,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1236,51 +1289,51 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B27" s="9"/>
     </row>

--- a/templates/community/MAdLand/MAdLand_cultivation_conditions.xlsx
+++ b/templates/community/MAdLand/MAdLand_cultivation_conditions.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\MAdLand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F9645A-FD31-4322-9F81-CDD494567400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A6A6DE-2299-4971-8E28-C4A57260B0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5175C398-6057-4720-8A59-77326B96BF47}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5175C398-6057-4720-8A59-77326B96BF47}"/>
   </bookViews>
   <sheets>
     <sheet name="cultivation conditions" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -969,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0220EB21-B30A-4104-B8EC-C5E7E6139214}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -1132,7 +1132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88FEFE3-A362-41F9-BF58-44BAAD965CD6}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
